--- a/management/dagboek.xlsx
+++ b/management/dagboek.xlsx
@@ -111,16 +111,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -401,127 +417,135 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <f ca="1">TODAY()</f>
         <v>42780</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>42688</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>42689</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>42690</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>42691</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>42692</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>42701</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>42780</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="D10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/management/dagboek.xlsx
+++ b/management/dagboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>DAGBOEK PROJECTWERK</t>
   </si>
@@ -32,9 +32,6 @@
     <t>AUTHORS:</t>
   </si>
   <si>
-    <t>PIETER DELOBELLE, ANTON DANNEELS, MATTHIAS DE LANGHE</t>
-  </si>
-  <si>
     <t>UPDATE:</t>
   </si>
   <si>
@@ -60,6 +57,12 @@
   </si>
   <si>
     <t>ON TRACK</t>
+  </si>
+  <si>
+    <t>Persistence context configureren</t>
+  </si>
+  <si>
+    <t>PIETER DELOBELLE, ANTON DANNEELS, MATTHIAS DE LANGE</t>
   </si>
 </sst>
 </file>
@@ -125,17 +128,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,51 +430,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42780</v>
+        <v>42786</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>42688</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -480,10 +483,10 @@
         <v>42689</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -492,10 +495,10 @@
         <v>42690</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -504,10 +507,10 @@
         <v>42691</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -516,10 +519,10 @@
         <v>42692</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -528,10 +531,10 @@
         <v>42701</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10" t="s">
         <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -540,12 +543,23 @@
         <v>42780</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42786</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/management/dagboek.xlsx
+++ b/management/dagboek.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pieter/Documents/2017/3ELICTI/Bachelorproject/bachelorproject/management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JEE\project\bachelorproject\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14664" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>DAGBOEK PROJECTWERK</t>
   </si>
@@ -63,12 +63,21 @@
   </si>
   <si>
     <t>PIETER DELOBELLE, ANTON DANNEELS, MATTHIAS DE LANGE</t>
+  </si>
+  <si>
+    <t>Instellen VM, start conversie model -&gt; database</t>
+  </si>
+  <si>
+    <t>Start MatlabProcessor</t>
+  </si>
+  <si>
+    <t>MatlabProcessor klaar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -142,13 +151,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -417,19 +429,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="2" max="2" width="43.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -442,7 +454,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="7" t="s">
@@ -450,11 +462,11 @@
       </c>
       <c r="D2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42786</v>
+        <v>42792</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -466,7 +478,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>42688</v>
       </c>
@@ -478,7 +490,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>42689</v>
       </c>
@@ -490,7 +502,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>42690</v>
       </c>
@@ -502,7 +514,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>42691</v>
       </c>
@@ -514,7 +526,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>42692</v>
       </c>
@@ -526,7 +538,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>42701</v>
       </c>
@@ -538,7 +550,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>42780</v>
       </c>
@@ -550,7 +562,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42786</v>
       </c>
@@ -559,6 +571,50 @@
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>42789</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>42790</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>42791</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>42792</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/management/dagboek.xlsx
+++ b/management/dagboek.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JEE\project\bachelorproject\management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pieter/Documents/2017/3ELICTI/Bachelorproject/bachelorproject/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14664" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>DAGBOEK PROJECTWERK</t>
   </si>
@@ -72,12 +72,18 @@
   </si>
   <si>
     <t>MatlabProcessor klaar</t>
+  </si>
+  <si>
+    <t>Overleg en taakverdeling authenticatie en front-end</t>
+  </si>
+  <si>
+    <t>Authenticatie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -151,7 +157,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -429,19 +435,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="1"/>
-    <col min="2" max="2" width="43.296875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1"/>
+    <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -454,7 +460,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="7" t="s">
@@ -462,11 +468,11 @@
       </c>
       <c r="D2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42792</v>
+        <v>42796</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -478,7 +484,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>42688</v>
       </c>
@@ -490,7 +496,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>42689</v>
       </c>
@@ -502,7 +508,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>42690</v>
       </c>
@@ -514,7 +520,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>42691</v>
       </c>
@@ -526,7 +532,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>42692</v>
       </c>
@@ -538,7 +544,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>42701</v>
       </c>
@@ -550,7 +556,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>42780</v>
       </c>
@@ -562,7 +568,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42786</v>
       </c>
@@ -573,7 +579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42789</v>
       </c>
@@ -584,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42790</v>
       </c>
@@ -595,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42791</v>
       </c>
@@ -606,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42792</v>
       </c>
@@ -614,6 +620,50 @@
         <v>15</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42793</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42768</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
     </row>
